--- a/fantrax_model/output/FantraxXIs2022_23.xlsx
+++ b/fantrax_model/output/FantraxXIs2022_23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnhughes/fantrax_django/Fantrax_22_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnhughes/fantrax_django/fantrax_model/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6545E6-6FD2-3944-B806-7DA4BE7EECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A023042-1F56-3247-BDD5-DE980BC77F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ars" sheetId="1" r:id="rId1"/>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -75298,8 +75298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
